--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T13:19:54+00:00</t>
+    <t>2023-06-22T13:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T13:21:03+00:00</t>
+    <t>2023-06-26T14:18:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T14:18:21+00:00</t>
+    <t>2023-06-26T18:12:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T18:12:26+00:00</t>
+    <t>2023-06-26T18:53:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T18:53:39+00:00</t>
+    <t>2023-06-27T23:00:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T23:00:32+00:00</t>
+    <t>2023-06-28T16:41:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28T16:41:17+00:00</t>
+    <t>2023-06-28T22:56:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28T22:56:24+00:00</t>
+    <t>2023-06-29T21:23:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-29T21:23:44+00:00</t>
+    <t>2023-06-29T21:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-29T21:40:07+00:00</t>
+    <t>2023-07-01T08:06:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-01T08:06:17+00:00</t>
+    <t>2023-07-01T19:51:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-01T19:51:15+00:00</t>
+    <t>2023-07-02T09:23:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T09:44:24+00:00</t>
+    <t>2023-07-02T10:08:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T10:08:51+00:00</t>
+    <t>2023-07-02T12:34:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T12:34:58+00:00</t>
+    <t>2023-07-02T12:42:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T13:27:30+00:00</t>
+    <t>2023-07-02T13:33:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T13:33:56+00:00</t>
+    <t>2023-07-02T13:41:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T13:41:15+00:00</t>
+    <t>2023-07-02T13:47:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T13:47:46+00:00</t>
+    <t>2023-07-02T14:16:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T14:16:08+00:00</t>
+    <t>2023-07-02T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T14:18:34+00:00</t>
+    <t>2023-07-02T14:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T14:20:15+00:00</t>
+    <t>2023-07-02T14:28:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T14:28:28+00:00</t>
+    <t>2023-07-02T14:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T14:35:15+00:00</t>
+    <t>2023-07-02T14:44:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T14:44:20+00:00</t>
+    <t>2023-07-02T14:55:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T14:55:15+00:00</t>
+    <t>2023-07-02T15:07:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T15:07:50+00:00</t>
+    <t>2023-07-02T15:17:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T15:17:15+00:00</t>
+    <t>2023-07-02T15:45:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T15:45:52+00:00</t>
+    <t>2023-07-02T16:08:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-KeyPopCS.xlsx
+++ b/branches/main/CodeSystem-KeyPopCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T16:08:33+00:00</t>
+    <t>2023-07-02T16:15:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
